--- a/biology/Botanique/Rubus_coreanus/Rubus_coreanus.xlsx
+++ b/biology/Botanique/Rubus_coreanus/Rubus_coreanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rubus coreanus (ou ronce coréenne [1], coréen : 복분자딸기 ; hanja : 覆盆子딸기) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est une framboise native de la Corée, du Japon et de la Chine[2]. 
-Elle se nomme aussi « framboise noire », et on commercialise un « jus de framboise noire » en Corée. Ce fruit est riche en polyphénols, et est connu pour exercer des activités anti-inflammatoires, antibactériennes et antivirales[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rubus coreanus (ou ronce coréenne , coréen : 복분자딸기 ; hanja : 覆盆子딸기) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est une framboise native de la Corée, du Japon et de la Chine. 
+Elle se nomme aussi « framboise noire », et on commercialise un « jus de framboise noire » en Corée. Ce fruit est riche en polyphénols, et est connu pour exercer des activités anti-inflammatoires, antibactériennes et antivirales.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (7 novembre 2023)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (7 novembre 2023) :
 Rubus coreanus var. concolor Nakai ex J.Y.Yang
 Rubus coreanus var. coreanus  Miq.
 Rubus coreanus var. tomentosus Cardot</t>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubus coreanus Miq.[4],[5].
-Rubus coreanus a pour synonymes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubus coreanus Miq.,.
+Rubus coreanus a pour synonymes :
 Rubus coreanus f. inermis M.Kim
 Rubus coreanus f. viridicaulis M.Kim
 Rubus coreanus var. kouytchensis (H.Lév.) H.Lév.
@@ -588,7 +604,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) F. A. Guil. Miquel, « Prolusio Florae iaponicae », Annales Musei Botanici Lugduno-Batavi, Amsterdam, vol. 3, no 2,‎ 1867, p. 1-66 (lire en ligne, consulté le 7 novembre 2023).</t>
         </is>
